--- a/AB/Apresentacao/Timeline_AB.xlsx
+++ b/AB/Apresentacao/Timeline_AB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisc\OneDrive\Ambiente de Trabalho\Faculdade\GitHub\Mestrado\AB\Apresentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172F3608-E974-4AC5-9519-D157FCB75A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC83FF81-9B69-4970-B079-0038B2BD3161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline_en" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="28">
   <si>
     <t>TASK</t>
   </si>
@@ -104,6 +104,45 @@
   </si>
   <si>
     <t>PROGRESSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discover bioinformatics algoritms </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python libraries </t>
+  </si>
+  <si>
+    <t>Build architecture</t>
+  </si>
+  <si>
+    <t>Project Development</t>
+  </si>
+  <si>
+    <t>Report and 2nd phase presentation</t>
+  </si>
+  <si>
+    <t>Explore the EnteroBase</t>
+  </si>
+  <si>
+    <t>Project proposal phase 1</t>
+  </si>
+  <si>
+    <t>Metrics algoritms</t>
+  </si>
+  <si>
+    <t>Explore different databases</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Analyse some of the databases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tree algoritms (Neighbor joining) </t>
+  </si>
+  <si>
+    <t>Pylocluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Treemethods</t>
   </si>
 </sst>
 </file>
@@ -164,7 +203,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,8 +234,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -423,11 +480,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -612,6 +704,116 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="15" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -621,146 +823,17 @@
     <xf numFmtId="15" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="77">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="59">
     <dxf>
       <fill>
         <patternFill>
@@ -1489,13 +1562,13 @@
   </sheetPr>
   <dimension ref="A1:CD24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AP13" sqref="AP13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC29" sqref="AC29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" style="3" customWidth="1"/>
     <col min="3" max="4" width="2.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="2.140625" style="3" customWidth="1"/>
@@ -1555,10 +1628,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:82" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="97"/>
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="94"/>
       <c r="BA1" s="22"/>
       <c r="BB1" s="22"/>
       <c r="BC1" s="22"/>
@@ -1591,48 +1695,48 @@
       <c r="CD1" s="22"/>
     </row>
     <row r="2" spans="1:82" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="91" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5">
         <v>45366</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="64" t="s">
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="64" t="s">
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="64" t="s">
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="66"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="100"/>
+      <c r="AD2" s="101"/>
       <c r="AE2" s="48"/>
       <c r="AF2" s="48"/>
       <c r="AG2" s="48"/>
@@ -1652,10 +1756,10 @@
       <c r="AU2" s="48"/>
     </row>
     <row r="3" spans="1:82" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="66" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="20" t="s">
@@ -1761,17 +1865,19 @@
       <c r="AU3" s="15"/>
     </row>
     <row r="4" spans="1:82" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="39">
+      <c r="A4" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="67">
         <v>0.1</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="32"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="73"/>
       <c r="J4" s="11"/>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
@@ -1811,15 +1917,17 @@
       <c r="AT4" s="22"/>
       <c r="AU4" s="22"/>
     </row>
-    <row r="5" spans="1:82" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="39">
-        <v>0.1</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
+    <row r="5" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="A5" s="105" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="67">
+        <v>0.05</v>
+      </c>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
       <c r="G5" s="35"/>
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
@@ -1827,8 +1935,8 @@
       <c r="K5" s="35"/>
       <c r="L5" s="35"/>
       <c r="M5" s="35"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
       <c r="P5" s="36"/>
       <c r="Q5" s="34"/>
       <c r="R5" s="35"/>
@@ -1862,18 +1970,20 @@
       <c r="AT5" s="22"/>
       <c r="AU5" s="22"/>
     </row>
-    <row r="6" spans="1:82" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="39">
+    <row r="6" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="A6" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="67">
         <v>0.1</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="68"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="76"/>
       <c r="J6" s="11"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
@@ -1913,18 +2023,20 @@
       <c r="AT6" s="22"/>
       <c r="AU6" s="22"/>
     </row>
-    <row r="7" spans="1:82" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="39">
-        <v>0.1</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
+    <row r="7" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="A7" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="67">
+        <v>0.08</v>
+      </c>
+      <c r="C7" s="77"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="79"/>
       <c r="J7" s="19"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
@@ -1964,15 +2076,17 @@
       <c r="AT7" s="22"/>
       <c r="AU7" s="22"/>
     </row>
-    <row r="8" spans="1:82" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+    <row r="8" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="A8" s="106" t="s">
+        <v>25</v>
+      </c>
       <c r="B8" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
+        <v>0.02</v>
+      </c>
+      <c r="C8" s="80"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
       <c r="I8" s="38"/>
@@ -2015,18 +2129,20 @@
       <c r="AT8" s="22"/>
       <c r="AU8" s="22"/>
     </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
-      <c r="B9" s="59">
-        <v>0.1</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
+    <row r="9" spans="1:82" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="67">
+        <v>0.15</v>
+      </c>
+      <c r="C9" s="83"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="85"/>
       <c r="J9" s="33"/>
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
@@ -2066,15 +2182,17 @@
       <c r="AT9" s="22"/>
       <c r="AU9" s="22"/>
     </row>
-    <row r="10" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
-      <c r="B10" s="59">
+    <row r="10" spans="1:82" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="67">
         <v>0.1</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="88"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="32"/>
@@ -2118,14 +2236,16 @@
       <c r="AU10" s="22"/>
     </row>
     <row r="11" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
-      <c r="B11" s="58">
-        <v>0.1</v>
-      </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="A11" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="C11" s="89"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
       <c r="I11" s="29"/>
@@ -2143,7 +2263,7 @@
       <c r="U11" s="9"/>
       <c r="V11" s="22"/>
       <c r="W11" s="29"/>
-      <c r="X11" s="69"/>
+      <c r="X11" s="22"/>
       <c r="Y11" s="22"/>
       <c r="Z11" s="22"/>
       <c r="AA11" s="23"/>
@@ -2152,9 +2272,11 @@
       <c r="AD11" s="29"/>
     </row>
     <row r="12" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
-      <c r="B12" s="42">
-        <v>0.1</v>
+      <c r="A12" s="106" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="58">
+        <v>0</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="9"/>
@@ -2186,24 +2308,26 @@
       <c r="AD12" s="38"/>
     </row>
     <row r="13" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="60">
-        <v>0.1</v>
+      <c r="A13" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="59">
+        <v>0</v>
       </c>
       <c r="C13" s="30"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="29"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="10"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
@@ -2220,43 +2344,47 @@
       <c r="AD13" s="10"/>
     </row>
     <row r="14" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="59">
-        <v>0.1</v>
+      <c r="A14" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="61">
+        <v>0</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
       <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="10"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="32"/>
     </row>
-    <row r="15" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
-      <c r="B15" s="63">
-        <v>0.1</v>
+    <row r="15" spans="1:82" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="61">
+        <v>0</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="9"/>
@@ -2289,9 +2417,7 @@
     </row>
     <row r="16" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A16" s="43"/>
-      <c r="B16" s="61">
-        <v>0.1</v>
-      </c>
+      <c r="B16" s="61"/>
       <c r="C16" s="33"/>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
@@ -2320,6 +2446,10 @@
       <c r="AB16" s="25"/>
       <c r="AC16" s="25"/>
       <c r="AD16" s="32"/>
+    </row>
+    <row r="17" spans="6:29" x14ac:dyDescent="0.25">
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
     </row>
     <row r="19" spans="6:29" x14ac:dyDescent="0.25">
       <c r="AC19" s="22"/>
@@ -2364,6 +2494,9 @@
       <c r="V21" s="22"/>
       <c r="W21" s="22"/>
     </row>
+    <row r="23" spans="6:29" x14ac:dyDescent="0.25">
+      <c r="J23" s="22"/>
+    </row>
     <row r="24" spans="6:29" x14ac:dyDescent="0.25">
       <c r="F24" s="8"/>
     </row>
@@ -2374,310 +2507,23 @@
     <mergeCell ref="Q2:W2"/>
     <mergeCell ref="X2:AD2"/>
   </mergeCells>
+  <conditionalFormatting sqref="A14:A15">
+    <cfRule type="expression" dxfId="58" priority="1">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="expression" dxfId="57" priority="12">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="expression" dxfId="75" priority="29">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:I4 C6:I13">
-    <cfRule type="expression" dxfId="74" priority="473">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:I4 C6:I10">
-    <cfRule type="expression" priority="530">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:I11">
-    <cfRule type="expression" priority="531">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:I13">
-    <cfRule type="expression" priority="688">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="689">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:I14">
-    <cfRule type="expression" dxfId="73" priority="204">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="205">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="206">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:P5 J6:P10 Q7:S7 U7:AD7">
-    <cfRule type="expression" priority="354">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:I16">
-    <cfRule type="expression" dxfId="72" priority="36">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="39">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="40">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="71" priority="148">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:P3 J4:Q4 C5:P5 J6:P13">
-    <cfRule type="expression" dxfId="70" priority="353">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11:P11">
-    <cfRule type="expression" priority="355">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12:P13">
-    <cfRule type="expression" priority="356">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="357">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14:P14">
-    <cfRule type="expression" dxfId="69" priority="201">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="202">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="203">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16:P16">
-    <cfRule type="expression" priority="23">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16:W16">
-    <cfRule type="expression" dxfId="68" priority="18">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16:Z16">
-    <cfRule type="expression" priority="17">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4:AD4 AB5:AD5 Q5:X6">
-    <cfRule type="expression" priority="318">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O17">
-    <cfRule type="expression" dxfId="67" priority="136">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:W3 R4:W4 Q5:W6 Q7:S7 U7:AD7 Q8:W10 U11:W12">
-    <cfRule type="expression" dxfId="66" priority="335">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q9">
-    <cfRule type="expression" dxfId="65" priority="108">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q10">
-    <cfRule type="expression" dxfId="64" priority="106">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q11">
-    <cfRule type="expression" dxfId="63" priority="101">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q12:T12">
-    <cfRule type="expression" dxfId="62" priority="93">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="94">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q11:W11">
-    <cfRule type="expression" priority="96">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q16:W16">
-    <cfRule type="expression" priority="20">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q13:AD14">
-    <cfRule type="expression" dxfId="61" priority="89">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="90">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R9">
-    <cfRule type="expression" dxfId="60" priority="107">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R10">
-    <cfRule type="expression" dxfId="59" priority="105">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R11:T11">
-    <cfRule type="expression" dxfId="58" priority="95">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5:U5">
-    <cfRule type="expression" dxfId="57" priority="123">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S10">
-    <cfRule type="expression" dxfId="56" priority="104">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T10">
-    <cfRule type="expression" dxfId="55" priority="103">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U12:W12">
-    <cfRule type="expression" priority="338">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U12:AD12">
-    <cfRule type="expression" priority="321">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X3:AD4 AB5:AD5 X5:X6 AA6:AB6">
-    <cfRule type="expression" dxfId="54" priority="317">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X16:Z16">
-    <cfRule type="expression" priority="16">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X8:AD12">
-    <cfRule type="expression" dxfId="53" priority="180">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X11:AD12">
-    <cfRule type="expression" priority="181">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X16:AD16">
-    <cfRule type="expression" dxfId="52" priority="15">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y5">
-    <cfRule type="expression" dxfId="51" priority="121">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="122">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y6:Z6">
-    <cfRule type="expression" dxfId="50" priority="115">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="116">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y5:AA5">
-    <cfRule type="expression" dxfId="49" priority="117">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z5:AA5">
-    <cfRule type="expression" dxfId="48" priority="118">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="119">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA6:AD6">
-    <cfRule type="expression" priority="110">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA16:AD16">
-    <cfRule type="expression" priority="27">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="28">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC6:AD6">
-    <cfRule type="expression" dxfId="47" priority="109">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q8:AD10">
-    <cfRule type="expression" priority="300">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="41" priority="7">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
-    <cfRule type="expression" dxfId="40" priority="6">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2">
-    <cfRule type="expression" dxfId="39" priority="5">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X2">
-    <cfRule type="expression" dxfId="38" priority="4">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B14">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="expression" dxfId="56" priority="38">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B13">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2690,8 +2536,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:B16">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="B14:B16">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2702,6 +2548,280 @@
           <x14:id>{3DF19A04-9008-4D7A-A168-3ABA960289B3}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="expression" dxfId="55" priority="16">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:I4 C6:I13">
+    <cfRule type="expression" dxfId="54" priority="482">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:I4 C6:I10">
+    <cfRule type="expression" priority="539">
+      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:I11">
+    <cfRule type="expression" priority="540">
+      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:I13">
+    <cfRule type="expression" priority="698">
+      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="697">
+      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:P5 J6:P10 Q7:S7 U7:AD7">
+    <cfRule type="expression" priority="363">
+      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:P5 J6:P13">
+    <cfRule type="expression" dxfId="53" priority="362">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:I14">
+    <cfRule type="expression" priority="9">
+      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:W14">
+    <cfRule type="expression" dxfId="52" priority="4">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:Z14">
+    <cfRule type="expression" priority="3">
+      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:Z16">
+    <cfRule type="expression" priority="25">
+      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:AD16">
+    <cfRule type="expression" dxfId="51" priority="24">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="expression" dxfId="50" priority="157">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2">
+    <cfRule type="expression" dxfId="49" priority="15">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:P11">
+    <cfRule type="expression" priority="364">
+      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:P13">
+    <cfRule type="expression" priority="365">
+      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="366">
+      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:P14">
+    <cfRule type="expression" priority="6">
+      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16:P16">
+    <cfRule type="expression" priority="32">
+      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:W4 Q5:W6 Q7:S7 U7:AD7 Q8:W10 U11:W12">
+    <cfRule type="expression" dxfId="48" priority="344">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:AD4 AB5:AD5 Q5:X6">
+    <cfRule type="expression" priority="327">
+      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O17">
+    <cfRule type="expression" dxfId="47" priority="145">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2">
+    <cfRule type="expression" dxfId="46" priority="14">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q9">
+    <cfRule type="expression" dxfId="45" priority="117">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q10">
+    <cfRule type="expression" dxfId="44" priority="115">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q11">
+    <cfRule type="expression" dxfId="43" priority="110">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q12:T12">
+    <cfRule type="expression" dxfId="42" priority="102">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q11:W11">
+    <cfRule type="expression" priority="105">
+      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q12:W12">
+    <cfRule type="expression" priority="103">
+      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q14:W14">
+    <cfRule type="expression" priority="5">
+      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q16:W16">
+    <cfRule type="expression" priority="29">
+      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q8:AD10">
+    <cfRule type="expression" priority="309">
+      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q13:AD13">
+    <cfRule type="expression" dxfId="41" priority="98">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="99">
+      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R9">
+    <cfRule type="expression" dxfId="40" priority="116">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R10">
+    <cfRule type="expression" dxfId="39" priority="114">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R11:T11">
+    <cfRule type="expression" dxfId="38" priority="104">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5:U5">
+    <cfRule type="expression" dxfId="37" priority="132">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S10">
+    <cfRule type="expression" dxfId="36" priority="113">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T10">
+    <cfRule type="expression" dxfId="35" priority="112">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U12:AD12">
+    <cfRule type="expression" priority="330">
+      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X2">
+    <cfRule type="expression" dxfId="34" priority="13">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X3:AD4 AB5:AD5 X5:X6 AA6:AB6">
+    <cfRule type="expression" dxfId="33" priority="326">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X8:AD12">
+    <cfRule type="expression" dxfId="32" priority="189">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X11:AD12">
+    <cfRule type="expression" priority="190">
+      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X14:AD14">
+    <cfRule type="expression" dxfId="31" priority="2">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y6:Z6">
+    <cfRule type="expression" priority="125">
+      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="124">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y5:AA5">
+    <cfRule type="expression" dxfId="29" priority="126">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="127">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="128">
+      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA6:AD6">
+    <cfRule type="expression" priority="119">
+      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA14:AD14">
+    <cfRule type="expression" priority="7">
+      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="8">
+      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA16:AD16">
+    <cfRule type="expression" priority="37">
+      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="36">
+      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC6:AD6">
+    <cfRule type="expression" dxfId="27" priority="118">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2720,7 +2840,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B4:B14</xm:sqref>
+          <xm:sqref>B4:B13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3DF19A04-9008-4D7A-A168-3ABA960289B3}">
@@ -2733,7 +2853,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B15:B16</xm:sqref>
+          <xm:sqref>B14:B16</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2748,8 +2868,8 @@
   </sheetPr>
   <dimension ref="A1:CD24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2856,42 +2976,42 @@
       <c r="B2" s="5">
         <v>45366</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="64" t="s">
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="64" t="s">
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="64" t="s">
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="66"/>
+      <c r="Y2" s="103"/>
+      <c r="Z2" s="103"/>
+      <c r="AA2" s="103"/>
+      <c r="AB2" s="103"/>
+      <c r="AC2" s="103"/>
+      <c r="AD2" s="104"/>
       <c r="AE2" s="48"/>
       <c r="AF2" s="48"/>
       <c r="AG2" s="48"/>
@@ -3086,8 +3206,8 @@
       <c r="K5" s="35"/>
       <c r="L5" s="35"/>
       <c r="M5" s="35"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
       <c r="P5" s="36"/>
       <c r="Q5" s="34"/>
       <c r="R5" s="35"/>
@@ -3132,7 +3252,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
-      <c r="I6" s="68"/>
+      <c r="I6" s="65"/>
       <c r="J6" s="11"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
@@ -3402,7 +3522,7 @@
       <c r="U11" s="9"/>
       <c r="V11" s="22"/>
       <c r="W11" s="29"/>
-      <c r="X11" s="69"/>
+      <c r="X11" s="22"/>
       <c r="Y11" s="22"/>
       <c r="Z11" s="22"/>
       <c r="AA11" s="23"/>
@@ -3591,7 +3711,7 @@
     <mergeCell ref="X2:AD2"/>
   </mergeCells>
   <conditionalFormatting sqref="A16">
-    <cfRule type="expression" dxfId="37" priority="34">
+    <cfRule type="expression" dxfId="26" priority="34">
       <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3624,7 +3744,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2 C3:I4 C6:I13">
-    <cfRule type="expression" dxfId="36" priority="144">
+    <cfRule type="expression" dxfId="25" priority="144">
       <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3647,14 +3767,8 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:I14">
-    <cfRule type="expression" dxfId="35" priority="111">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="112">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="113">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    <cfRule type="expression" dxfId="24" priority="111">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:P5 J6:P10 Q7:S7 U7:AD7">
@@ -3662,24 +3776,36 @@
       <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C14:P14">
+    <cfRule type="expression" priority="110">
+      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="109">
+      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D16:I16">
-    <cfRule type="expression" dxfId="34" priority="28">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="31">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
     <cfRule type="expression" priority="32">
       <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D16:W16">
+    <cfRule type="expression" dxfId="23" priority="11">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:Z16">
+    <cfRule type="expression" priority="10">
+      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="33" priority="91">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2 J3:P3 J4:Q4 C5:P5 J6:P13">
-    <cfRule type="expression" dxfId="32" priority="138">
+    <cfRule type="expression" dxfId="22" priority="91">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2 C5:P5 J6:P13">
+    <cfRule type="expression" dxfId="21" priority="138">
       <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3697,29 +3823,8 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:P14">
-    <cfRule type="expression" dxfId="31" priority="108">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="109">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="110">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16:P16">
-    <cfRule type="expression" priority="16">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16:W16">
-    <cfRule type="expression" dxfId="30" priority="11">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16:Z16">
-    <cfRule type="expression" priority="10">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    <cfRule type="expression" dxfId="20" priority="108">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:AD4 AB5:AD5 Q5:X6 AA6:AB6">
@@ -3728,39 +3833,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17">
-    <cfRule type="expression" dxfId="29" priority="90">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2 Q3:W3 R4:W4 Q5:W6 Q7:S7 U7:AD7 Q8:W10 U11:W12">
-    <cfRule type="expression" dxfId="28" priority="134">
+    <cfRule type="expression" dxfId="19" priority="90">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2 J3:W4 Q5:W6 Q7:S7 U7:AD7 Q8:W10 U11:W12">
+    <cfRule type="expression" dxfId="18" priority="134">
       <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9">
-    <cfRule type="expression" dxfId="27" priority="74">
+    <cfRule type="expression" dxfId="17" priority="74">
       <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10">
-    <cfRule type="expression" dxfId="26" priority="72">
+    <cfRule type="expression" dxfId="16" priority="72">
       <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="expression" dxfId="25" priority="67">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
     <cfRule type="expression" priority="68">
       <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="15" priority="67">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12:T12">
-    <cfRule type="expression" dxfId="24" priority="59">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
     <cfRule type="expression" priority="60">
       <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="59">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16:W16">
@@ -3768,8 +3873,13 @@
       <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Q8:AD10">
+    <cfRule type="expression" priority="126">
+      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q13:AD13">
-    <cfRule type="expression" dxfId="23" priority="57">
+    <cfRule type="expression" dxfId="13" priority="57">
       <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
     </cfRule>
     <cfRule type="expression" priority="58">
@@ -3777,51 +3887,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14:AD14">
-    <cfRule type="expression" dxfId="22" priority="55">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
     <cfRule type="expression" priority="56">
       <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="12" priority="55">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R9">
-    <cfRule type="expression" dxfId="21" priority="73">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R10">
-    <cfRule type="expression" dxfId="20" priority="71">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R11">
-    <cfRule type="expression" dxfId="19" priority="65">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="66">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    <cfRule type="expression" dxfId="11" priority="73">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R10:T10">
+    <cfRule type="expression" dxfId="10" priority="69">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R11:T11">
+    <cfRule type="expression" priority="62">
+      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="61">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5:U5">
-    <cfRule type="expression" dxfId="18" priority="89">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S10">
-    <cfRule type="expression" dxfId="17" priority="70">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S11:T11">
-    <cfRule type="expression" dxfId="16" priority="61">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="62">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T10">
-    <cfRule type="expression" dxfId="15" priority="69">
+    <cfRule type="expression" dxfId="8" priority="89">
       <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3841,12 +3933,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2 X3:AD4 AB5:AD5 X5:X6 AA6:AB6">
-    <cfRule type="expression" dxfId="14" priority="130">
+    <cfRule type="expression" dxfId="7" priority="130">
       <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X16:Z16">
-    <cfRule type="expression" dxfId="13" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
     </cfRule>
     <cfRule type="expression" priority="9">
@@ -3854,7 +3946,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X8:AD12">
-    <cfRule type="expression" dxfId="12" priority="101">
+    <cfRule type="expression" dxfId="5" priority="101">
       <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3864,56 +3956,48 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y5">
-    <cfRule type="expression" dxfId="11" priority="87">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
     <cfRule type="expression" priority="88">
       <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Z6">
-    <cfRule type="expression" dxfId="10" priority="81">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
     <cfRule type="expression" priority="82">
       <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="4" priority="81">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y5:AA5">
-    <cfRule type="expression" dxfId="9" priority="83">
+    <cfRule type="expression" dxfId="3" priority="83">
       <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z5:AA5">
-    <cfRule type="expression" dxfId="8" priority="84">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
     <cfRule type="expression" priority="85">
       <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="2" priority="84">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA16:AD16">
+    <cfRule type="expression" priority="21">
+      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="29">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
+    </cfRule>
     <cfRule type="expression" priority="20">
       <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" priority="21">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="29">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC6:AD6">
-    <cfRule type="expression" dxfId="6" priority="75">
-      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
-    </cfRule>
     <cfRule type="expression" priority="76">
       <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q8:AD10">
-    <cfRule type="expression" priority="126">
-      <formula>AND(#REF!&gt;=#REF!, #REF!&lt;=#REF!)</formula>
+    <cfRule type="expression" dxfId="0" priority="75">
+      <formula>_xludf.AND(#REF!&lt;=#REF!,#REF!&gt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
